--- a/test1.xlsx
+++ b/test1.xlsx
@@ -375,48 +375,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B1">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C1">
-        <v>242</v>
-      </c>
-      <c r="D1">
-        <v>15</v>
-      </c>
-      <c r="E1">
-        <v>3630</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>6776</v>
-      </c>
-      <c r="D2">
-        <v>15</v>
-      </c>
-      <c r="E2">
-        <v>101640</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
   </ignoredErrors>
 </worksheet>
 </file>